--- a/medicine/Enfance/Daniel_Boulanger/Daniel_Boulanger.xlsx
+++ b/medicine/Enfance/Daniel_Boulanger/Daniel_Boulanger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Daniel Boulanger, né le 24 janvier 1922 à Compiègne et mort le 27 octobre 2014[1] à Senlis, est un écrivain, poète, scénariste, dialoguiste, auteur de théâtre et acteur français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Daniel Boulanger, né le 24 janvier 1922 à Compiègne et mort le 27 octobre 2014 à Senlis, est un écrivain, poète, scénariste, dialoguiste, auteur de théâtre et acteur français.
 Membre de l'Académie Goncourt à partir de 1983, il en démissionne en 2008.
 </t>
         </is>
@@ -512,14 +524,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Daniel Boulanger est né le 24 janvier 1922 à Compiègne, dans l'Oise.
 Il fait ses études dans l'Aisne au petit séminaire Saint-Charles de Chauny. Après ses études, il entend se consacrer à l'enseignement et devient instituteur. Peu après la Seconde Guerre mondiale, il s'exile un temps au Brésil où il est professeur de français. Son salaire insuffisant le contraint toutefois à se faire courtier en tableaux d'art. En 1946, il quitte précipitamment l'Amérique de Sud et s'installe au Tchad pour occuper un poste de rédacteur aux Affaires économiques.
 De retour en France, il publie des romans, des nouvelles, et rédige des scénarios et dialogues pour plusieurs films de la Nouvelle Vague.
 À partir de la fin des années 1960, il publie des recueils de poésie et des pièces de théâtre.
 Il est l'auteur de 15 recueils de nouvelles, 29 romans, 27 recueils de poésies, 5 pièces de théâtre.
-Il obtient en 1963 le prix de la Nouvelle pour les Noces du merle, en 1969 le prix Sainte-Beuve pour Les Chemins des caracoles, en 1970 le prix Max-Jacob pour Retouches, en 1971 le Prix de la nouvelle de l'Académie française pour Vessies et lanternes, en 1974[2] le prix Goncourt de la nouvelle pour 'Fouette, cocher !, en 1978 le prix du Livre Inter pour L'Enfant de Bohème, et en 1979 le prix Prince-Pierre-de-Monaco pour l'ensemble de son œuvre.
+Il obtient en 1963 le prix de la Nouvelle pour les Noces du merle, en 1969 le prix Sainte-Beuve pour Les Chemins des caracoles, en 1970 le prix Max-Jacob pour Retouches, en 1971 le Prix de la nouvelle de l'Académie française pour Vessies et lanternes, en 1974 le prix Goncourt de la nouvelle pour 'Fouette, cocher !, en 1978 le prix du Livre Inter pour L'Enfant de Bohème, et en 1979 le prix Prince-Pierre-de-Monaco pour l'ensemble de son œuvre.
 Proche des réalisateurs de la Nouvelle Vague, il joue dans plusieurs films en tant qu'acteur. Il tient de petits rôles dans quelques films de François Truffaut, notamment Tirez sur le pianiste et Domicile conjugal (1970). Dans ce dernier, il est un chanteur ténor, voisin de Claude Jade et de Jean-Pierre Léaud. À la fin du film, Léaud se comporte comme se comportait naguère le chanteur d'opéra, c'est-à-dire qu'il prend le manteau et le sac à main de sa femme et les jette dans l'escalier ; il est devenu un mari à l'égal du ténor. Claude Jade porte le sac, Boulanger et sa femme (Silvana Blasi) l'aident à remettre son manteau - et la femme de  Boulanger dit à celui-ci : « Tu vois chéri, maintenant ils s'aiment vraiment. » Dans le film La Zizanie (1978) il tient le rôle du banquier des Daubray Lacaze (Louis de Funès et Annie Girardot).
 Il devient membre de l'Académie Goncourt en 1983, jusqu'en 2008.
 </t>
@@ -552,7 +566,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nouvelles, contes et recueils de nouvelles
+          <t>Nouvelles, contes et recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les Noces du merle, La Table ronde, 1963 ; réédition, Gallimard, 1985 ; réédition, « Folio », no 2833, 1996
 L'Été des femmes, La Table ronde, 1964 ; réédition, Gallimard, 1985
 Le Chemin des caracoles, Éditions Robert Laffont, 1966 (Prix Sainte-Beuve 1966) ; réédition, « Folio », no 1974), 1988
@@ -577,7 +597,43 @@
 Nouvelles II, Gallimard, 2001
 Nouvelles III, Gallimard, 2002
 Nouvelles IV, Gallimard, 2003
-Romans
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Daniel_Boulanger</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Boulanger</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 La Rue froide, La Table ronde, 1958
 L'Ombre, Éditions de Minuit, 1959 ; réédition sous le titre Miroir d'ici, Gallimard, 1978
 Le Gouverneur polygame, éditions de Minuit, 1960 ; réédition, Gallimard, 1979
@@ -607,7 +663,43 @@
 Du temps qu'on plaisantait, Grasset, 2003 ; réédition, « Le Livre de poche » no 30375, 2005
 La Poste de nuit, Grasset, 2004 ; réédition, « Le Livre de poche » no 30887, 2007
 Le ciel est aux petits porteurs, Grasset, 2006
-Poésies
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Daniel_Boulanger</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Boulanger</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Poésies</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Tchadiennes, Gallimard, collection blanche, 1969 ; réédition, Poésie/Gallimard, 1989
 Retouches, Gallimard, collection blanche, 1969 (Prix Max-Jacob 1970) ; réédition, Poésie/Gallimard, 1987
 Les Dessous du ciel, Gallimard, collection blanche, 1973 ; réédition, Poésie/Gallimard, 1997
@@ -636,14 +728,83 @@
 Fenêtre mon navire, (Retouches), Éditions Grasset, 2008
 L'Esplanade, (Retouches), Éditions Grasset, 2010
 Vestiaire des anges, (Retouches), Éditions Grasset, 2012
-Pièces de théâtre
-C'est à quel sujet ?, suivi de Le Roi Fanny, Gallimard, 1984
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Daniel_Boulanger</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Boulanger</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Pièces de théâtre</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>C'est à quel sujet ?, suivi de Le Roi Fanny, Gallimard, 1984
 À la belle étoile - À votre service - Le Beau Voyage, Gallimard, 1985
 Coup de lune - La Partie de cartes - Le Voyage de noces, Gallimard, 1986
 La Toison d'or - Le Paradis, Gallimard, 1987
-La Reine Fracasse - Le Jardin, Gallimard, 1995
-Textes radiophoniques
-Le Voyage, 1963 (pièce radiophonique)
+La Reine Fracasse - Le Jardin, Gallimard, 1995</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Daniel_Boulanger</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Boulanger</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Textes radiophoniques</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le Voyage, 1963 (pièce radiophonique)
 La Libération, 1974
 Adrienne, 1974
 Jeunesse, 1974
@@ -657,33 +818,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Daniel_Boulanger</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Daniel_Boulanger</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En tant que scénariste
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>En tant que scénariste</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Marat (1989) de Maroun Bagdadi
 Chouans ! (1988) de Philippe de Broca
 Les Cavaliers de l'orage (1984) de Gerard Vergez
@@ -710,7 +877,43 @@
 Le Bal des espions (1960) de Michel Clément
 Les Jeux de l'amour (1960) de Philippe de Broca
 La Récréation (1960) de François Moreuil et Fabien Collin
-En tant que dialoguiste
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Daniel_Boulanger</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Boulanger</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>En tant que dialoguiste</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Marat (1989) de Maroun Bagdadi
 Deux hommes dans la ville (1973) de José Giovanni
 Pas folle la guêpe (1972) de Jean Delannoy
@@ -728,7 +931,43 @@
 Cartouche (1962) de Philippe de Broca
 Le Farceur (1960) de Philippe de Broca
 Les Jeux de l'amour (1960) de Philippe de Broca
-En tant qu'acteur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Daniel_Boulanger</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Daniel_Boulanger</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>En tant qu'acteur</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1960 : À bout de souffle de Jean-Luc Godard : l'inspecteur Vital
 1960 : Les Jeux de l'amour de Philippe de Broca
 1960 : Tirez sur le pianiste de François Truffaut : Ernest
@@ -744,31 +983,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>Daniel_Boulanger</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Daniel_Boulanger</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1966 : Prix Sainte-Beuve
@@ -777,7 +1018,7 @@
 1974 : Prix Goncourt de la nouvelle
 1978 : Prix du livre Inter
 1979 : Prix Prince-Pierre-de-Monaco pour l'ensemble de son œuvre
-1983 : Prix Kléber Haedens avec Geneviève Dormann[3]
+1983 : Prix Kléber Haedens avec Geneviève Dormann
  Officier de la Légion d'honneur (1994)
  Officier de l'ordre national du Mérite
  Officier de l'ordre des Arts et des Lettres
